--- a/Week10/Interview/Monday/Yellow team/note-template -- Yellow Team.xlsx
+++ b/Week10/Interview/Monday/Yellow team/note-template -- Yellow Team.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
   <si>
     <t xml:space="preserve">Interviewee:Ryan</t>
   </si>
@@ -95,25 +95,100 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Interviewee:Dev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Score: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interviewer:Teresa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interviewee:</t>
+    <t xml:space="preserve">Interviewee:Kemo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Score:  4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interviewer:Ryan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is your favorite project and what was your and what techs did you use</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> project description, listed techs. Spoke about role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the difference  region and availability zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Region physical location, Availability zone general region where the service is available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is ajax, what do we use it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajax  is a Provides async calls using javascript code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what is a javascript promise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what is returned from an ajax all or fetch call</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difference between hashtable and hashmap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uses map hashmap 1 null, hastable no null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what does rest stand for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resource… (does not know)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interviewee: Teresa</t>
   </si>
   <si>
     <t xml:space="preserve">Score:</t>
   </si>
   <si>
-    <t xml:space="preserve">Interviewer:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scribe:Dev</t>
+    <t xml:space="preserve">Interviewer: Kemo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell me about yourself</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduced herself, past work experience, current experience, listed some techs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is Spring AOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspect Oriented Programming, separate business logic form concern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the difference eager and lazy fetching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The components are eagerly injected.. ( could not answer the rest of the question)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you create a component (Angular)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ng generate component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What files make up a component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ts, html, css,test file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the two levels of caching?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does not know</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the difference between comparable and comparator interfaces</t>
   </si>
 </sst>
 </file>
@@ -318,15 +393,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -354,11 +425,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -439,10 +514,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F63" activeCellId="0" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -534,7 +609,7 @@
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -542,7 +617,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -567,30 +642,30 @@
       <c r="A13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -598,7 +673,7 @@
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -628,10 +703,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+    <row r="22" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4"/>
@@ -646,36 +727,66 @@
       <c r="C24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="9"/>
+      <c r="A25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="9"/>
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="9"/>
+      <c r="A27" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="9"/>
+      <c r="A28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="9"/>
+      <c r="A29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="s">
-        <v>26</v>
+      <c r="A31" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
@@ -683,14 +794,14 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -700,7 +811,7 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
     </row>
-    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
         <v>5</v>
       </c>
@@ -712,14 +823,18 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="12"/>
+      <c r="A36" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="11" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="17"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="12"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="11"/>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4"/>
@@ -734,44 +849,178 @@
       <c r="C40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
+      <c r="A41" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
+      <c r="A42" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
+      <c r="A43" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
+      <c r="A44" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
+      <c r="A45" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
+      <c r="A46" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="11"/>
+      <c r="B49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="18"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="11"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="18"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="11"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="11"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="11"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="11"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="11"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Week10/Interview/Monday/Yellow team/note-template -- Yellow Team.xlsx
+++ b/Week10/Interview/Monday/Yellow team/note-template -- Yellow Team.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEVARAJ AC\Desktop\notes\standup-notes\Week10\Interview\Monday\Yellow team\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0D9E91-6A53-46A5-A34F-8762EE6B693E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DEV" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="DEV" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -19,73 +33,95 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
-  <si>
-    <t xml:space="preserve">Interviewee:Ryan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Score: 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interview Focus (if applicable)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interviewer:Dev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scribe:Raphael</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Softskills Section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">✔ or X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell me about responsibility in your last project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">✔</t>
-  </si>
-  <si>
-    <t xml:space="preserve">refactor code using sonar lint, implement testing  using junit nad work with another team to split project into micro services. Did not talk about the project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technical Section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is a tread and problem with thread</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A thread is a running process, java assigns a process to. Problems:Dead lock, producer and eating problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difference between method overloading and overriding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">½</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overloading in class, compile time, same method different parameters,return type same, overriding, parent and child name, return type can be changed as long it is a subtype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can you have two main methods in the same class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes. The main method will be overloaded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difference betweens joins and set operators</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joins combine s joins tables , set operators combine results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How do you create a table in HTML?</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="91">
+  <si>
+    <t>Interviewee:Ryan</t>
+  </si>
+  <si>
+    <t>Score: 5</t>
+  </si>
+  <si>
+    <t>Interview Focus (if applicable)</t>
+  </si>
+  <si>
+    <t>Interviewer:Dev</t>
+  </si>
+  <si>
+    <t>Scribe:Raphael</t>
+  </si>
+  <si>
+    <t>Softskills Section</t>
+  </si>
+  <si>
+    <t>✔ or X</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Tell me about responsibility in your last project</t>
+  </si>
+  <si>
+    <t>✔</t>
+  </si>
+  <si>
+    <t>refactor code using sonar lint, implement testing  using junit nad work with another team to split project into micro services. Did not talk about the project</t>
+  </si>
+  <si>
+    <t>Technical Section</t>
+  </si>
+  <si>
+    <t>What is a tread and problem with thread</t>
+  </si>
+  <si>
+    <t>A thread is a running process, java assigns a process to. Problems:Dead lock, producer and eating problem</t>
+  </si>
+  <si>
+    <t>Difference between method overloading and overriding</t>
+  </si>
+  <si>
+    <t>½</t>
+  </si>
+  <si>
+    <t>Overloading in class, compile time, same method different parameters,return type same, overriding, parent and child name, return type can be changed as long it is a subtype</t>
+  </si>
+  <si>
+    <t>Can you have two main methods in the same class</t>
+  </si>
+  <si>
+    <t>Yes. The main method will be overloaded</t>
+  </si>
+  <si>
+    <t>Difference betweens joins and set operators</t>
+  </si>
+  <si>
+    <t>Joins combine s joins tables , set operators combine results</t>
+  </si>
+  <si>
+    <t>How do you create a table in HTML?</t>
   </si>
   <si>
     <t xml:space="preserve">Start with  table tag… ( listed  table tags &lt;table&gt;
@@ -95,109 +131,214 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Interviewee:Kemo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Score:  4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interviewer:Ryan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is your favorite project and what was your and what techs did you use</t>
+    <t>Interviewee:Kemo</t>
+  </si>
+  <si>
+    <t>Score:  4</t>
+  </si>
+  <si>
+    <t>Interviewer:Ryan</t>
+  </si>
+  <si>
+    <t>What is your favorite project and what was your and what techs did you use</t>
   </si>
   <si>
     <t xml:space="preserve"> project description, listed techs. Spoke about role</t>
   </si>
   <si>
-    <t xml:space="preserve">What is the difference  region and availability zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Region physical location, Availability zone general region where the service is available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is ajax, what do we use it?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajax  is a Provides async calls using javascript code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what is a javascript promise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what is returned from an ajax all or fetch call</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difference between hashtable and hashmap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uses map hashmap 1 null, hastable no null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what does rest stand for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resource… (does not know)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interviewee: Teresa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Score:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interviewer: Kemo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell me about yourself</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduced herself, past work experience, current experience, listed some techs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is Spring AOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aspect Oriented Programming, separate business logic form concern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the difference eager and lazy fetching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The components are eagerly injected.. ( could not answer the rest of the question)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How do you create a component (Angular)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ng generate component</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What files make up a component</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ts, html, css,test file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What are the two levels of caching?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does not know</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the difference between comparable and comparator interfaces</t>
+    <t>What is the difference  region and availability zone</t>
+  </si>
+  <si>
+    <t>Region physical location, Availability zone general region where the service is available</t>
+  </si>
+  <si>
+    <t>What is ajax, what do we use it?</t>
+  </si>
+  <si>
+    <t>Ajax  is a Provides async calls using javascript code</t>
+  </si>
+  <si>
+    <t>what is a javascript promise</t>
+  </si>
+  <si>
+    <t>what is returned from an ajax all or fetch call</t>
+  </si>
+  <si>
+    <t>Difference between hashtable and hashmap</t>
+  </si>
+  <si>
+    <t>Uses map hashmap 1 null, hastable no null</t>
+  </si>
+  <si>
+    <t>what does rest stand for</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>resource… (does not know)</t>
+  </si>
+  <si>
+    <t>Interviewee: Teresa</t>
+  </si>
+  <si>
+    <t>Score:</t>
+  </si>
+  <si>
+    <t>Interviewer: Kemo</t>
+  </si>
+  <si>
+    <t>Tell me about yourself</t>
+  </si>
+  <si>
+    <t>Introduced herself, past work experience, current experience, listed some techs</t>
+  </si>
+  <si>
+    <t>What is Spring AOP</t>
+  </si>
+  <si>
+    <t>Aspect Oriented Programming, separate business logic form concern</t>
+  </si>
+  <si>
+    <t>What is the difference eager and lazy fetching</t>
+  </si>
+  <si>
+    <t>The components are eagerly injected.. ( could not answer the rest of the question)</t>
+  </si>
+  <si>
+    <t>How do you create a component (Angular)</t>
+  </si>
+  <si>
+    <t>ng generate component</t>
+  </si>
+  <si>
+    <t>What files make up a component</t>
+  </si>
+  <si>
+    <t>ts, html, css,test file</t>
+  </si>
+  <si>
+    <t>What are the two levels of caching?</t>
+  </si>
+  <si>
+    <t>Does not know</t>
+  </si>
+  <si>
+    <t>What is the difference between comparable and comparator interfaces</t>
+  </si>
+  <si>
+    <t>Interviewee: Dev Archarya</t>
+  </si>
+  <si>
+    <t>Score: 3/6</t>
+  </si>
+  <si>
+    <t>Interviewer: Raphael Shackleford</t>
+  </si>
+  <si>
+    <t>Scribe: Ryan Choy</t>
+  </si>
+  <si>
+    <t>What's your favorite thing about Angular</t>
+  </si>
+  <si>
+    <t>Likes Angular SPA's design, databinding, directives. Admitted that he doesn't know much</t>
+  </si>
+  <si>
+    <t>What JDBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java database connectivity, communicates with database, named some interfaces. </t>
+  </si>
+  <si>
+    <t>Advantages to using a logging library</t>
+  </si>
+  <si>
+    <t>helps with logging events, use different labels, helps with detecting errors and debugging</t>
+  </si>
+  <si>
+    <t>which collections cannot hold null values?</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>does not know</t>
+  </si>
+  <si>
+    <t>What is CSS box model?</t>
+  </si>
+  <si>
+    <t>What is Bootstrap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code in the cloud that can be used to interact with HTML code </t>
+  </si>
+  <si>
+    <t>Interviewee: Raphael Shackleford</t>
+  </si>
+  <si>
+    <t>Scribe: Dev Acharya</t>
+  </si>
+  <si>
+    <t>Interviewer: Teresa</t>
+  </si>
+  <si>
+    <t>what makes a class immutable?</t>
+  </si>
+  <si>
+    <t>public final class and class name, by declearing private</t>
+  </si>
+  <si>
+    <t>what data types are supported in switch statement?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int, string, byte, short </t>
+  </si>
+  <si>
+    <t>what are non access modifier?</t>
+  </si>
+  <si>
+    <t>final, static, volatile, strict, syncronize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">static{}, related to class, loaded before class loaded, </t>
+  </si>
+  <si>
+    <t>what is a static block?</t>
+  </si>
+  <si>
+    <t>what are the static imports?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imports that loaded with method, eg. When in mockito, </t>
+  </si>
+  <si>
+    <t>Score: 6/6</t>
+  </si>
+  <si>
+    <t>what are the three uses of super keyword</t>
+  </si>
+  <si>
+    <t>what are enums?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can be specifies as name, </t>
+  </si>
+  <si>
+    <t>refers to parent, super.variable name ==&gt; parent varilable, super() ==&gt; parene constructor and in method</t>
+  </si>
+  <si>
+    <t>What are covariant return types?</t>
+  </si>
+  <si>
+    <t>include set but not a specifice part -- does not know</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -207,33 +348,16 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -247,10 +371,25 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,189 +402,305 @@
         <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="16">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FFCCCCCC"/>
       </left>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -504,31 +759,339 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F63" activeCellId="0" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="53.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.63"/>
+    <col min="1" max="1" width="53.453125" customWidth="1"/>
+    <col min="2" max="2" width="20.26953125" customWidth="1"/>
+    <col min="3" max="3" width="32.81640625" customWidth="1"/>
+    <col min="4" max="1025" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,26 +1102,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -569,7 +1132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" ht="72.5">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -580,12 +1143,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
@@ -594,7 +1157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
@@ -605,7 +1168,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -616,7 +1179,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3">
       <c r="A11" s="10" t="s">
         <v>17</v>
       </c>
@@ -627,7 +1190,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:3">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
@@ -638,7 +1201,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:3" ht="87">
       <c r="A13" s="7" t="s">
         <v>21</v>
       </c>
@@ -649,22 +1212,22 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:3">
       <c r="A14" s="10"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:3">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:3">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:3">
       <c r="A17" s="11" t="s">
         <v>23</v>
       </c>
@@ -673,26 +1236,26 @@
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:3">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:3">
       <c r="A21" s="6" t="s">
         <v>5</v>
       </c>
@@ -703,7 +1266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:3" ht="29">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -714,19 +1277,19 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:3">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:3">
       <c r="A24" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:3">
       <c r="A25" s="7" t="s">
         <v>28</v>
       </c>
@@ -737,7 +1300,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
@@ -748,7 +1311,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:3">
       <c r="A27" s="10" t="s">
         <v>32</v>
       </c>
@@ -759,7 +1322,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:3">
       <c r="A28" s="7" t="s">
         <v>34</v>
       </c>
@@ -770,7 +1333,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:3">
       <c r="A29" s="7" t="s">
         <v>36</v>
       </c>
@@ -781,7 +1344,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:3">
       <c r="A31" s="11" t="s">
         <v>39</v>
       </c>
@@ -792,26 +1355,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:3">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:3">
       <c r="A35" s="6" t="s">
         <v>5</v>
       </c>
@@ -822,7 +1385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:3">
       <c r="A36" s="18" t="s">
         <v>42</v>
       </c>
@@ -831,24 +1394,24 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:3">
       <c r="A37" s="18"/>
       <c r="B37" s="8"/>
       <c r="C37" s="11"/>
     </row>
-    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:3">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
     </row>
-    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:3">
       <c r="A40" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:3">
       <c r="A41" s="11" t="s">
         <v>44</v>
       </c>
@@ -859,7 +1422,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:3">
       <c r="A42" s="11" t="s">
         <v>46</v>
       </c>
@@ -870,7 +1433,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:3">
       <c r="A43" s="11" t="s">
         <v>48</v>
       </c>
@@ -881,7 +1444,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:3">
       <c r="A44" s="11" t="s">
         <v>50</v>
       </c>
@@ -892,7 +1455,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:3">
       <c r="A45" s="11" t="s">
         <v>52</v>
       </c>
@@ -903,7 +1466,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:3">
       <c r="A46" s="11" t="s">
         <v>54</v>
       </c>
@@ -914,17 +1477,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:3">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:3">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:3">
       <c r="A49" s="11"/>
       <c r="B49" s="1" t="s">
         <v>40</v>
@@ -933,102 +1496,299 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6" t="s">
+    <row r="50" spans="1:3">
+      <c r="A50" s="11"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="11"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="4"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B57" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C57" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="18"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="11"/>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="18"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="11"/>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="s">
+    <row r="58" spans="1:3">
+      <c r="A58" s="31"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="18"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="11"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="4"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="11"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="11"/>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="11"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="11"/>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11" t="e" cm="1">
+        <f t="array" ref="C69">-- not sure</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C72" s="29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="27"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="43.5">
+      <c r="A77" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="27"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B81" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B82" s="11"/>
+      <c r="C82" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="21"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="19"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>